--- a/EstimatedActiveCasesOverTimeByCounty/2021-03-04.xlsx
+++ b/EstimatedActiveCasesOverTimeByCounty/2021-03-04.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="347">
   <si>
-    <t>COVID-19 Active Cases by County, 12/11/2020 - 03/03/2021 at 3:00 PM CST</t>
+    <t>COVID-19 Active Cases by County, 12/11/2020 - 03/04/2021 at 3:00 PM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>Active Cases 03-02</t>
+  </si>
+  <si>
+    <t>Active Cases 03-03</t>
   </si>
   <si>
     <t/>
@@ -1248,6 +1251,7 @@
     <col min="81" max="81" width="12.0" customWidth="true"/>
     <col min="82" max="82" width="12.0" customWidth="true"/>
     <col min="83" max="83" width="12.0" customWidth="true"/>
+    <col min="84" max="84" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1510,13 +1514,16 @@
       <c r="CE3" t="s" s="10">
         <v>84</v>
       </c>
+      <c r="CF3" t="s" s="10">
+        <v>85</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" t="n">
         <v>261.0</v>
@@ -1760,14 +1767,17 @@
       </c>
       <c r="CE4" t="n">
         <v>87.0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>84.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" t="n">
         <v>313.0</v>
@@ -2010,15 +2020,18 @@
         <v>144.0</v>
       </c>
       <c r="CE5" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="CF5" t="n">
         <v>144.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" t="n">
         <v>751.0</v>
@@ -2262,14 +2275,17 @@
       </c>
       <c r="CE6" t="n">
         <v>425.0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>422.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C7" t="n">
         <v>103.0</v>
@@ -2513,14 +2529,17 @@
       </c>
       <c r="CE7" t="n">
         <v>53.0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C8" t="n">
         <v>45.0</v>
@@ -2764,14 +2783,17 @@
       </c>
       <c r="CE8" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" t="n">
         <v>32.0</v>
@@ -3014,15 +3036,18 @@
         <v>1.0</v>
       </c>
       <c r="CE9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF9" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C10" t="n">
         <v>210.0</v>
@@ -3265,15 +3290,18 @@
         <v>61.0</v>
       </c>
       <c r="CE10" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="CF10" t="n">
         <v>71.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" t="n">
         <v>77.0</v>
@@ -3516,15 +3544,18 @@
         <v>30.0</v>
       </c>
       <c r="CE11" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="CF11" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C12" t="n">
         <v>118.0</v>
@@ -3767,15 +3798,18 @@
         <v>16.0</v>
       </c>
       <c r="CE12" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CF12" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13" t="n">
         <v>46.0</v>
@@ -4019,14 +4053,17 @@
       </c>
       <c r="CE13" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" t="n">
         <v>461.0</v>
@@ -4270,14 +4307,17 @@
       </c>
       <c r="CE14" t="n">
         <v>796.0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>812.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -4520,15 +4560,18 @@
         <v>0.0</v>
       </c>
       <c r="CE15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF15" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C16" t="n">
         <v>171.0</v>
@@ -4772,14 +4815,17 @@
       </c>
       <c r="CE16" t="n">
         <v>31.0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C17" t="n">
         <v>1639.0</v>
@@ -5023,14 +5069,17 @@
       </c>
       <c r="CE17" t="n">
         <v>483.0</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>512.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C18" t="n">
         <v>15750.0</v>
@@ -5274,14 +5323,17 @@
       </c>
       <c r="CE18" t="n">
         <v>8667.0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>8430.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C19" t="n">
         <v>24.0</v>
@@ -5525,14 +5577,17 @@
       </c>
       <c r="CE19" t="n">
         <v>68.0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -5775,15 +5830,18 @@
         <v>1.0</v>
       </c>
       <c r="CE20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF20" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C21" t="n">
         <v>74.0</v>
@@ -6027,14 +6085,17 @@
       </c>
       <c r="CE21" t="n">
         <v>133.0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>137.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C22" t="n">
         <v>482.0</v>
@@ -6278,14 +6339,17 @@
       </c>
       <c r="CE22" t="n">
         <v>505.0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>511.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C23" t="n">
         <v>2730.0</v>
@@ -6529,14 +6593,17 @@
       </c>
       <c r="CE23" t="n">
         <v>2864.0</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>2860.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C24" t="n">
         <v>854.0</v>
@@ -6780,14 +6847,17 @@
       </c>
       <c r="CE24" t="n">
         <v>820.0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>862.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C25" t="n">
         <v>182.0</v>
@@ -7031,14 +7101,17 @@
       </c>
       <c r="CE25" t="n">
         <v>25.0</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C26" t="n">
         <v>15.0</v>
@@ -7282,14 +7355,17 @@
       </c>
       <c r="CE26" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C27" t="n">
         <v>38.0</v>
@@ -7533,14 +7609,17 @@
       </c>
       <c r="CE27" t="n">
         <v>20.0</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C28" t="n">
         <v>429.0</v>
@@ -7783,15 +7862,18 @@
         <v>112.0</v>
       </c>
       <c r="CE28" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="CF28" t="n">
         <v>112.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C29" t="n">
         <v>119.0</v>
@@ -8035,14 +8117,17 @@
       </c>
       <c r="CE29" t="n">
         <v>222.0</v>
+      </c>
+      <c r="CF29" t="n">
+        <v>225.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C30" t="n">
         <v>311.0</v>
@@ -8286,14 +8371,17 @@
       </c>
       <c r="CE30" t="n">
         <v>485.0</v>
+      </c>
+      <c r="CF30" t="n">
+        <v>487.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C31" t="n">
         <v>197.0</v>
@@ -8537,14 +8625,17 @@
       </c>
       <c r="CE31" t="n">
         <v>541.0</v>
+      </c>
+      <c r="CF31" t="n">
+        <v>539.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C32" t="n">
         <v>51.0</v>
@@ -8788,14 +8879,17 @@
       </c>
       <c r="CE32" t="n">
         <v>59.0</v>
+      </c>
+      <c r="CF32" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C33" t="n">
         <v>49.0</v>
@@ -9038,15 +9132,18 @@
         <v>8.0</v>
       </c>
       <c r="CE33" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CF33" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C34" t="n">
         <v>2029.0</v>
@@ -9290,14 +9387,17 @@
       </c>
       <c r="CE34" t="n">
         <v>3846.0</v>
+      </c>
+      <c r="CF34" t="n">
+        <v>3699.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C35" t="n">
         <v>71.0</v>
@@ -9541,14 +9641,17 @@
       </c>
       <c r="CE35" t="n">
         <v>162.0</v>
+      </c>
+      <c r="CF35" t="n">
+        <v>160.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C36" t="n">
         <v>117.0</v>
@@ -9792,14 +9895,17 @@
       </c>
       <c r="CE36" t="n">
         <v>19.0</v>
+      </c>
+      <c r="CF36" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C37" t="n">
         <v>83.0</v>
@@ -10043,14 +10149,17 @@
       </c>
       <c r="CE37" t="n">
         <v>97.0</v>
+      </c>
+      <c r="CF37" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C38" t="n">
         <v>133.0</v>
@@ -10294,14 +10403,17 @@
       </c>
       <c r="CE38" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CF38" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C39" t="n">
         <v>269.0</v>
@@ -10545,14 +10657,17 @@
       </c>
       <c r="CE39" t="n">
         <v>152.0</v>
+      </c>
+      <c r="CF39" t="n">
+        <v>154.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C40" t="n">
         <v>214.0</v>
@@ -10795,15 +10910,18 @@
         <v>0.0</v>
       </c>
       <c r="CE40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF40" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C41" t="n">
         <v>218.0</v>
@@ -11046,15 +11164,18 @@
         <v>12.0</v>
       </c>
       <c r="CE41" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CF41" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C42" t="n">
         <v>63.0</v>
@@ -11297,15 +11418,18 @@
         <v>5.0</v>
       </c>
       <c r="CE42" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CF42" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C43" t="n">
         <v>19.0</v>
@@ -11549,14 +11673,17 @@
       </c>
       <c r="CE43" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CF43" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C44" t="n">
         <v>38.0</v>
@@ -11799,15 +11926,18 @@
         <v>31.0</v>
       </c>
       <c r="CE44" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="CF44" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C45" t="n">
         <v>12.0</v>
@@ -12050,15 +12180,18 @@
         <v>0.0</v>
       </c>
       <c r="CE45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF45" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C46" t="n">
         <v>3987.0</v>
@@ -12302,14 +12435,17 @@
       </c>
       <c r="CE46" t="n">
         <v>1295.0</v>
+      </c>
+      <c r="CF46" t="n">
+        <v>1447.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C47" t="n">
         <v>104.0</v>
@@ -12552,15 +12688,18 @@
         <v>3.0</v>
       </c>
       <c r="CE47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CF47" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C48" t="n">
         <v>91.0</v>
@@ -12804,14 +12943,17 @@
       </c>
       <c r="CE48" t="n">
         <v>18.0</v>
+      </c>
+      <c r="CF48" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C49" t="n">
         <v>667.0</v>
@@ -13055,14 +13197,17 @@
       </c>
       <c r="CE49" t="n">
         <v>326.0</v>
+      </c>
+      <c r="CF49" t="n">
+        <v>343.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C50" t="n">
         <v>112.0</v>
@@ -13305,15 +13450,18 @@
         <v>6.0</v>
       </c>
       <c r="CE50" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CF50" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C51" t="n">
         <v>11.0</v>
@@ -13556,15 +13704,18 @@
         <v>33.0</v>
       </c>
       <c r="CE51" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="CF51" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C52" t="n">
         <v>249.0</v>
@@ -13808,14 +13959,17 @@
       </c>
       <c r="CE52" t="n">
         <v>41.0</v>
+      </c>
+      <c r="CF52" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C53" t="n">
         <v>318.0</v>
@@ -14059,14 +14213,17 @@
       </c>
       <c r="CE53" t="n">
         <v>551.0</v>
+      </c>
+      <c r="CF53" t="n">
+        <v>561.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C54" t="n">
         <v>30.0</v>
@@ -14309,15 +14466,18 @@
         <v>4.0</v>
       </c>
       <c r="CE54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CF54" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -14561,14 +14721,17 @@
       </c>
       <c r="CE55" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CF55" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C56" t="n">
         <v>8.0</v>
@@ -14811,15 +14974,18 @@
         <v>18.0</v>
       </c>
       <c r="CE56" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CF56" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C57" t="n">
         <v>40.0</v>
@@ -15063,14 +15229,17 @@
       </c>
       <c r="CE57" t="n">
         <v>29.0</v>
+      </c>
+      <c r="CF57" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C58" t="n">
         <v>44.0</v>
@@ -15313,15 +15482,18 @@
         <v>14.0</v>
       </c>
       <c r="CE58" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="CF58" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C59" t="n">
         <v>24.0</v>
@@ -15565,14 +15737,17 @@
       </c>
       <c r="CE59" t="n">
         <v>91.0</v>
+      </c>
+      <c r="CF59" t="n">
+        <v>159.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C60" t="n">
         <v>25147.0</v>
@@ -15816,14 +15991,17 @@
       </c>
       <c r="CE60" t="n">
         <v>10148.0</v>
+      </c>
+      <c r="CF60" t="n">
+        <v>10282.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C61" t="n">
         <v>161.0</v>
@@ -16067,14 +16245,17 @@
       </c>
       <c r="CE61" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CF61" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C62" t="n">
         <v>418.0</v>
@@ -16318,14 +16499,17 @@
       </c>
       <c r="CE62" t="n">
         <v>53.0</v>
+      </c>
+      <c r="CF62" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C63" t="n">
         <v>25.0</v>
@@ -16569,14 +16753,17 @@
       </c>
       <c r="CE63" t="n">
         <v>39.0</v>
+      </c>
+      <c r="CF63" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C64" t="n">
         <v>8213.0</v>
@@ -16820,14 +17007,17 @@
       </c>
       <c r="CE64" t="n">
         <v>11765.0</v>
+      </c>
+      <c r="CF64" t="n">
+        <v>11854.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C65" t="n">
         <v>99.0</v>
@@ -17070,15 +17260,18 @@
         <v>25.0</v>
       </c>
       <c r="CE65" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CF65" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B66" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C66" t="n">
         <v>19.0</v>
@@ -17321,15 +17514,18 @@
         <v>6.0</v>
       </c>
       <c r="CE66" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CF66" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C67" t="n">
         <v>44.0</v>
@@ -17573,14 +17769,17 @@
       </c>
       <c r="CE67" t="n">
         <v>36.0</v>
+      </c>
+      <c r="CF67" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C68" t="n">
         <v>47.0</v>
@@ -17824,14 +18023,17 @@
       </c>
       <c r="CE68" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CF68" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C69" t="n">
         <v>86.0</v>
@@ -18075,14 +18277,17 @@
       </c>
       <c r="CE69" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CF69" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C70" t="n">
         <v>55.0</v>
@@ -18326,14 +18531,17 @@
       </c>
       <c r="CE70" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CF70" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C71" t="n">
         <v>5924.0</v>
@@ -18577,14 +18785,17 @@
       </c>
       <c r="CE71" t="n">
         <v>1165.0</v>
+      </c>
+      <c r="CF71" t="n">
+        <v>1170.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C72" t="n">
         <v>14.0</v>
@@ -18827,15 +19038,18 @@
         <v>0.0</v>
       </c>
       <c r="CE72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF72" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C73" t="n">
         <v>856.0</v>
@@ -19079,14 +19293,17 @@
       </c>
       <c r="CE73" t="n">
         <v>221.0</v>
+      </c>
+      <c r="CF73" t="n">
+        <v>172.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C74" t="n">
         <v>37353.0</v>
@@ -19330,14 +19547,17 @@
       </c>
       <c r="CE74" t="n">
         <v>5783.0</v>
+      </c>
+      <c r="CF74" t="n">
+        <v>5631.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C75" t="n">
         <v>162.0</v>
@@ -19581,14 +19801,17 @@
       </c>
       <c r="CE75" t="n">
         <v>29.0</v>
+      </c>
+      <c r="CF75" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C76" t="n">
         <v>77.0</v>
@@ -19832,14 +20055,17 @@
       </c>
       <c r="CE76" t="n">
         <v>119.0</v>
+      </c>
+      <c r="CF76" t="n">
+        <v>125.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C77" t="n">
         <v>151.0</v>
@@ -20083,14 +20309,17 @@
       </c>
       <c r="CE77" t="n">
         <v>28.0</v>
+      </c>
+      <c r="CF77" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C78" t="n">
         <v>193.0</v>
@@ -20334,14 +20563,17 @@
       </c>
       <c r="CE78" t="n">
         <v>184.0</v>
+      </c>
+      <c r="CF78" t="n">
+        <v>192.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C79" t="n">
         <v>28.0</v>
@@ -20584,15 +20816,18 @@
         <v>0.0</v>
       </c>
       <c r="CE79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C80" t="n">
         <v>107.0</v>
@@ -20835,15 +21070,18 @@
         <v>28.0</v>
       </c>
       <c r="CE80" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CF80" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -21086,15 +21324,18 @@
         <v>0.0</v>
       </c>
       <c r="CE81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C82" t="n">
         <v>7296.0</v>
@@ -21338,14 +21579,17 @@
       </c>
       <c r="CE82" t="n">
         <v>10191.0</v>
+      </c>
+      <c r="CF82" t="n">
+        <v>10630.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C83" t="n">
         <v>24.0</v>
@@ -21589,14 +21833,17 @@
       </c>
       <c r="CE83" t="n">
         <v>99.0</v>
+      </c>
+      <c r="CF83" t="n">
+        <v>97.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C84" t="n">
         <v>129.0</v>
@@ -21840,14 +22087,17 @@
       </c>
       <c r="CE84" t="n">
         <v>135.0</v>
+      </c>
+      <c r="CF84" t="n">
+        <v>143.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C85" t="n">
         <v>107.0</v>
@@ -22090,15 +22340,18 @@
         <v>34.0</v>
       </c>
       <c r="CE85" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="CF85" t="n">
         <v>35.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C86" t="n">
         <v>162.0</v>
@@ -22342,14 +22595,17 @@
       </c>
       <c r="CE86" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CF86" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C87" t="n">
         <v>2026.0</v>
@@ -22593,14 +22849,17 @@
       </c>
       <c r="CE87" t="n">
         <v>4161.0</v>
+      </c>
+      <c r="CF87" t="n">
+        <v>3940.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C88" t="n">
         <v>27.0</v>
@@ -22843,15 +23102,18 @@
         <v>27.0</v>
       </c>
       <c r="CE88" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CF88" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C89" t="n">
         <v>126.0</v>
@@ -23095,14 +23357,17 @@
       </c>
       <c r="CE89" t="n">
         <v>55.0</v>
+      </c>
+      <c r="CF89" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -23345,15 +23610,18 @@
         <v>0.0</v>
       </c>
       <c r="CE90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF90" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C91" t="n">
         <v>2.0</v>
@@ -23596,15 +23864,18 @@
         <v>18.0</v>
       </c>
       <c r="CE91" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CF91" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C92" t="n">
         <v>87.0</v>
@@ -23847,15 +24118,18 @@
         <v>30.0</v>
       </c>
       <c r="CE92" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="CF92" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B93" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C93" t="n">
         <v>355.0</v>
@@ -24099,14 +24373,17 @@
       </c>
       <c r="CE93" t="n">
         <v>57.0</v>
+      </c>
+      <c r="CF93" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B94" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C94" t="n">
         <v>420.0</v>
@@ -24350,14 +24627,17 @@
       </c>
       <c r="CE94" t="n">
         <v>113.0</v>
+      </c>
+      <c r="CF94" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B95" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C95" t="n">
         <v>2037.0</v>
@@ -24601,14 +24881,17 @@
       </c>
       <c r="CE95" t="n">
         <v>732.0</v>
+      </c>
+      <c r="CF95" t="n">
+        <v>726.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B96" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C96" t="n">
         <v>179.0</v>
@@ -24852,14 +25135,17 @@
       </c>
       <c r="CE96" t="n">
         <v>355.0</v>
+      </c>
+      <c r="CF96" t="n">
+        <v>352.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B97" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C97" t="n">
         <v>401.0</v>
@@ -25103,14 +25389,17 @@
       </c>
       <c r="CE97" t="n">
         <v>206.0</v>
+      </c>
+      <c r="CF97" t="n">
+        <v>203.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B98" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C98" t="n">
         <v>440.0</v>
@@ -25354,14 +25643,17 @@
       </c>
       <c r="CE98" t="n">
         <v>31.0</v>
+      </c>
+      <c r="CF98" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B99" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C99" t="n">
         <v>91.0</v>
@@ -25605,14 +25897,17 @@
       </c>
       <c r="CE99" t="n">
         <v>12.0</v>
+      </c>
+      <c r="CF99" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B100" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C100" t="n">
         <v>53.0</v>
@@ -25856,14 +26151,17 @@
       </c>
       <c r="CE100" t="n">
         <v>34.0</v>
+      </c>
+      <c r="CF100" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B101" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C101" t="n">
         <v>112.0</v>
@@ -26107,14 +26405,17 @@
       </c>
       <c r="CE101" t="n">
         <v>30.0</v>
+      </c>
+      <c r="CF101" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B102" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C102" t="n">
         <v>13.0</v>
@@ -26357,15 +26658,18 @@
         <v>0.0</v>
       </c>
       <c r="CE102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF102" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B103" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C103" t="n">
         <v>1162.0</v>
@@ -26609,14 +26913,17 @@
       </c>
       <c r="CE103" t="n">
         <v>602.0</v>
+      </c>
+      <c r="CF103" t="n">
+        <v>647.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B104" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C104" t="n">
         <v>21091.0</v>
@@ -26860,14 +27167,17 @@
       </c>
       <c r="CE104" t="n">
         <v>19262.0</v>
+      </c>
+      <c r="CF104" t="n">
+        <v>19369.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B105" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C105" t="n">
         <v>239.0</v>
@@ -27111,14 +27421,17 @@
       </c>
       <c r="CE105" t="n">
         <v>798.0</v>
+      </c>
+      <c r="CF105" t="n">
+        <v>800.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B106" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C106" t="n">
         <v>61.0</v>
@@ -27362,14 +27675,17 @@
       </c>
       <c r="CE106" t="n">
         <v>72.0</v>
+      </c>
+      <c r="CF106" t="n">
+        <v>110.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B107" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C107" t="n">
         <v>13.0</v>
@@ -27613,14 +27929,17 @@
       </c>
       <c r="CE107" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CF107" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B108" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C108" t="n">
         <v>982.0</v>
@@ -27864,14 +28183,17 @@
       </c>
       <c r="CE108" t="n">
         <v>559.0</v>
+      </c>
+      <c r="CF108" t="n">
+        <v>592.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B109" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C109" t="n">
         <v>55.0</v>
@@ -28115,14 +28437,17 @@
       </c>
       <c r="CE109" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CF109" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B110" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C110" t="n">
         <v>1131.0</v>
@@ -28366,14 +28691,17 @@
       </c>
       <c r="CE110" t="n">
         <v>587.0</v>
+      </c>
+      <c r="CF110" t="n">
+        <v>586.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B111" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C111" t="n">
         <v>2517.0</v>
@@ -28617,14 +28945,17 @@
       </c>
       <c r="CE111" t="n">
         <v>2230.0</v>
+      </c>
+      <c r="CF111" t="n">
+        <v>2351.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B112" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C112" t="n">
         <v>327.0</v>
@@ -28868,14 +29199,17 @@
       </c>
       <c r="CE112" t="n">
         <v>386.0</v>
+      </c>
+      <c r="CF112" t="n">
+        <v>384.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B113" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C113" t="n">
         <v>256.0</v>
@@ -29119,14 +29453,17 @@
       </c>
       <c r="CE113" t="n">
         <v>59.0</v>
+      </c>
+      <c r="CF113" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B114" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C114" t="n">
         <v>280.0</v>
@@ -29370,14 +29707,17 @@
       </c>
       <c r="CE114" t="n">
         <v>62.0</v>
+      </c>
+      <c r="CF114" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B115" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C115" t="n">
         <v>225.0</v>
@@ -29621,14 +29961,17 @@
       </c>
       <c r="CE115" t="n">
         <v>173.0</v>
+      </c>
+      <c r="CF115" t="n">
+        <v>175.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B116" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C116" t="n">
         <v>54.0</v>
@@ -29872,14 +30215,17 @@
       </c>
       <c r="CE116" t="n">
         <v>63.0</v>
+      </c>
+      <c r="CF116" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B117" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C117" t="n">
         <v>594.0</v>
@@ -30123,14 +30469,17 @@
       </c>
       <c r="CE117" t="n">
         <v>43.0</v>
+      </c>
+      <c r="CF117" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B118" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C118" t="n">
         <v>64.0</v>
@@ -30374,14 +30723,17 @@
       </c>
       <c r="CE118" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CF118" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B119" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C119" t="n">
         <v>321.0</v>
@@ -30625,14 +30977,17 @@
       </c>
       <c r="CE119" t="n">
         <v>1322.0</v>
+      </c>
+      <c r="CF119" t="n">
+        <v>1320.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B120" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C120" t="n">
         <v>264.0</v>
@@ -30876,14 +31231,17 @@
       </c>
       <c r="CE120" t="n">
         <v>45.0</v>
+      </c>
+      <c r="CF120" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B121" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C121" t="n">
         <v>0.0</v>
@@ -31127,14 +31485,17 @@
       </c>
       <c r="CE121" t="n">
         <v>12.0</v>
+      </c>
+      <c r="CF121" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B122" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C122" t="n">
         <v>17.0</v>
@@ -31378,14 +31739,17 @@
       </c>
       <c r="CE122" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CF122" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B123" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C123" t="n">
         <v>58.0</v>
@@ -31629,14 +31993,17 @@
       </c>
       <c r="CE123" t="n">
         <v>35.0</v>
+      </c>
+      <c r="CF123" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B124" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C124" t="n">
         <v>138.0</v>
@@ -31880,14 +32247,17 @@
       </c>
       <c r="CE124" t="n">
         <v>22.0</v>
+      </c>
+      <c r="CF124" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B125" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C125" t="n">
         <v>19.0</v>
@@ -32130,15 +32500,18 @@
         <v>23.0</v>
       </c>
       <c r="CE125" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CF125" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B126" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C126" t="n">
         <v>2137.0</v>
@@ -32382,14 +32755,17 @@
       </c>
       <c r="CE126" t="n">
         <v>1526.0</v>
+      </c>
+      <c r="CF126" t="n">
+        <v>1486.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B127" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C127" t="n">
         <v>42.0</v>
@@ -32633,14 +33009,17 @@
       </c>
       <c r="CE127" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CF127" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B128" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C128" t="n">
         <v>248.0</v>
@@ -32884,14 +33263,17 @@
       </c>
       <c r="CE128" t="n">
         <v>131.0</v>
+      </c>
+      <c r="CF128" t="n">
+        <v>130.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B129" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C129" t="n">
         <v>846.0</v>
@@ -33135,14 +33517,17 @@
       </c>
       <c r="CE129" t="n">
         <v>163.0</v>
+      </c>
+      <c r="CF129" t="n">
+        <v>123.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B130" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C130" t="n">
         <v>658.0</v>
@@ -33386,14 +33771,17 @@
       </c>
       <c r="CE130" t="n">
         <v>116.0</v>
+      </c>
+      <c r="CF130" t="n">
+        <v>109.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B131" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C131" t="n">
         <v>44.0</v>
@@ -33637,14 +34025,17 @@
       </c>
       <c r="CE131" t="n">
         <v>37.0</v>
+      </c>
+      <c r="CF131" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B132" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C132" t="n">
         <v>524.0</v>
@@ -33888,14 +34279,17 @@
       </c>
       <c r="CE132" t="n">
         <v>212.0</v>
+      </c>
+      <c r="CF132" t="n">
+        <v>171.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B133" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C133" t="n">
         <v>120.0</v>
@@ -34139,14 +34533,17 @@
       </c>
       <c r="CE133" t="n">
         <v>75.0</v>
+      </c>
+      <c r="CF133" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B134" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C134" t="n">
         <v>2.0</v>
@@ -34389,15 +34786,18 @@
         <v>0.0</v>
       </c>
       <c r="CE134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF134" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B135" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C135" t="n">
         <v>3.0</v>
@@ -34640,15 +35040,18 @@
         <v>0.0</v>
       </c>
       <c r="CE135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF135" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B136" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C136" t="n">
         <v>241.0</v>
@@ -34892,14 +35295,17 @@
       </c>
       <c r="CE136" t="n">
         <v>69.0</v>
+      </c>
+      <c r="CF136" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B137" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C137" t="n">
         <v>6.0</v>
@@ -35143,14 +35549,17 @@
       </c>
       <c r="CE137" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CF137" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B138" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C138" t="n">
         <v>3.0</v>
@@ -35393,15 +35802,18 @@
         <v>0.0</v>
       </c>
       <c r="CE138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B139" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C139" t="n">
         <v>5.0</v>
@@ -35644,15 +36056,18 @@
         <v>1.0</v>
       </c>
       <c r="CE139" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CF139" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B140" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C140" t="n">
         <v>108.0</v>
@@ -35896,14 +36311,17 @@
       </c>
       <c r="CE140" t="n">
         <v>74.0</v>
+      </c>
+      <c r="CF140" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B141" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C141" t="n">
         <v>4.0</v>
@@ -36146,15 +36564,18 @@
         <v>1.0</v>
       </c>
       <c r="CE141" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF141" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B142" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C142" t="n">
         <v>410.0</v>
@@ -36398,14 +36819,17 @@
       </c>
       <c r="CE142" t="n">
         <v>239.0</v>
+      </c>
+      <c r="CF142" t="n">
+        <v>258.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B143" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C143" t="n">
         <v>354.0</v>
@@ -36649,14 +37073,17 @@
       </c>
       <c r="CE143" t="n">
         <v>33.0</v>
+      </c>
+      <c r="CF143" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B144" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C144" t="n">
         <v>113.0</v>
@@ -36900,14 +37327,17 @@
       </c>
       <c r="CE144" t="n">
         <v>233.0</v>
+      </c>
+      <c r="CF144" t="n">
+        <v>227.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B145" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C145" t="n">
         <v>76.0</v>
@@ -37151,14 +37581,17 @@
       </c>
       <c r="CE145" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CF145" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B146" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C146" t="n">
         <v>47.0</v>
@@ -37402,14 +37835,17 @@
       </c>
       <c r="CE146" t="n">
         <v>30.0</v>
+      </c>
+      <c r="CF146" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B147" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C147" t="n">
         <v>123.0</v>
@@ -37653,14 +38089,17 @@
       </c>
       <c r="CE147" t="n">
         <v>212.0</v>
+      </c>
+      <c r="CF147" t="n">
+        <v>211.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B148" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C148" t="n">
         <v>98.0</v>
@@ -37904,14 +38343,17 @@
       </c>
       <c r="CE148" t="n">
         <v>147.0</v>
+      </c>
+      <c r="CF148" t="n">
+        <v>143.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B149" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C149" t="n">
         <v>203.0</v>
@@ -38155,14 +38597,17 @@
       </c>
       <c r="CE149" t="n">
         <v>104.0</v>
+      </c>
+      <c r="CF149" t="n">
+        <v>119.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B150" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C150" t="n">
         <v>137.0</v>
@@ -38406,14 +38851,17 @@
       </c>
       <c r="CE150" t="n">
         <v>268.0</v>
+      </c>
+      <c r="CF150" t="n">
+        <v>272.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B151" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C151" t="n">
         <v>53.0</v>
@@ -38657,14 +39105,17 @@
       </c>
       <c r="CE151" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CF151" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B152" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C152" t="n">
         <v>137.0</v>
@@ -38907,15 +39358,18 @@
         <v>30.0</v>
       </c>
       <c r="CE152" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CF152" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B153" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C153" t="n">
         <v>133.0</v>
@@ -39159,14 +39613,17 @@
       </c>
       <c r="CE153" t="n">
         <v>163.0</v>
+      </c>
+      <c r="CF153" t="n">
+        <v>165.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B154" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C154" t="n">
         <v>0.0</v>
@@ -39409,15 +39866,18 @@
         <v>0.0</v>
       </c>
       <c r="CE154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B155" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C155" t="n">
         <v>4535.0</v>
@@ -39661,14 +40121,17 @@
       </c>
       <c r="CE155" t="n">
         <v>296.0</v>
+      </c>
+      <c r="CF155" t="n">
+        <v>286.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B156" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C156" t="n">
         <v>83.0</v>
@@ -39912,14 +40375,17 @@
       </c>
       <c r="CE156" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CF156" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B157" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C157" t="n">
         <v>41.0</v>
@@ -40163,14 +40629,17 @@
       </c>
       <c r="CE157" t="n">
         <v>28.0</v>
+      </c>
+      <c r="CF157" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B158" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C158" t="n">
         <v>1147.0</v>
@@ -40414,14 +40883,17 @@
       </c>
       <c r="CE158" t="n">
         <v>402.0</v>
+      </c>
+      <c r="CF158" t="n">
+        <v>273.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B159" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C159" t="n">
         <v>7.0</v>
@@ -40665,14 +41137,17 @@
       </c>
       <c r="CE159" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CF159" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B160" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C160" t="n">
         <v>62.0</v>
@@ -40916,14 +41391,17 @@
       </c>
       <c r="CE160" t="n">
         <v>157.0</v>
+      </c>
+      <c r="CF160" t="n">
+        <v>156.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B161" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C161" t="n">
         <v>14.0</v>
@@ -41166,15 +41644,18 @@
         <v>110.0</v>
       </c>
       <c r="CE161" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="CF161" t="n">
         <v>109.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B162" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C162" t="n">
         <v>88.0</v>
@@ -41417,15 +41898,18 @@
         <v>12.0</v>
       </c>
       <c r="CE162" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="CF162" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B163" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C163" t="n">
         <v>31.0</v>
@@ -41669,14 +42153,17 @@
       </c>
       <c r="CE163" t="n">
         <v>22.0</v>
+      </c>
+      <c r="CF163" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B164" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C164" t="n">
         <v>83.0</v>
@@ -41920,14 +42407,17 @@
       </c>
       <c r="CE164" t="n">
         <v>53.0</v>
+      </c>
+      <c r="CF164" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B165" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C165" t="n">
         <v>632.0</v>
@@ -42170,15 +42660,18 @@
         <v>1013.0</v>
       </c>
       <c r="CE165" t="n">
+        <v>994.0</v>
+      </c>
+      <c r="CF165" t="n">
         <v>994.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B166" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C166" t="n">
         <v>148.0</v>
@@ -42422,14 +42915,17 @@
       </c>
       <c r="CE166" t="n">
         <v>41.0</v>
+      </c>
+      <c r="CF166" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B167" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C167" t="n">
         <v>17.0</v>
@@ -42673,14 +43169,17 @@
       </c>
       <c r="CE167" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF167" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B168" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C168" t="n">
         <v>1564.0</v>
@@ -42924,14 +43423,17 @@
       </c>
       <c r="CE168" t="n">
         <v>250.0</v>
+      </c>
+      <c r="CF168" t="n">
+        <v>252.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B169" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C169" t="n">
         <v>123.0</v>
@@ -43175,14 +43677,17 @@
       </c>
       <c r="CE169" t="n">
         <v>35.0</v>
+      </c>
+      <c r="CF169" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B170" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C170" t="n">
         <v>56.0</v>
@@ -43426,14 +43931,17 @@
       </c>
       <c r="CE170" t="n">
         <v>60.0</v>
+      </c>
+      <c r="CF170" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B171" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C171" t="n">
         <v>83.0</v>
@@ -43676,15 +44184,18 @@
         <v>11.0</v>
       </c>
       <c r="CE171" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CF171" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B172" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C172" t="n">
         <v>89.0</v>
@@ -43928,14 +44439,17 @@
       </c>
       <c r="CE172" t="n">
         <v>21.0</v>
+      </c>
+      <c r="CF172" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B173" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C173" t="n">
         <v>8150.0</v>
@@ -44179,14 +44693,17 @@
       </c>
       <c r="CE173" t="n">
         <v>22656.0</v>
+      </c>
+      <c r="CF173" t="n">
+        <v>22619.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B174" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C174" t="n">
         <v>193.0</v>
@@ -44430,14 +44947,17 @@
       </c>
       <c r="CE174" t="n">
         <v>29.0</v>
+      </c>
+      <c r="CF174" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B175" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C175" t="n">
         <v>22.0</v>
@@ -44681,14 +45201,17 @@
       </c>
       <c r="CE175" t="n">
         <v>111.0</v>
+      </c>
+      <c r="CF175" t="n">
+        <v>110.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B176" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C176" t="n">
         <v>26.0</v>
@@ -44931,15 +45454,18 @@
         <v>1.0</v>
       </c>
       <c r="CE176" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF176" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B177" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C177" t="n">
         <v>204.0</v>
@@ -45183,14 +45709,17 @@
       </c>
       <c r="CE177" t="n">
         <v>293.0</v>
+      </c>
+      <c r="CF177" t="n">
+        <v>294.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B178" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C178" t="n">
         <v>251.0</v>
@@ -45434,14 +45963,17 @@
       </c>
       <c r="CE178" t="n">
         <v>132.0</v>
+      </c>
+      <c r="CF178" t="n">
+        <v>150.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B179" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C179" t="n">
         <v>26.0</v>
@@ -45684,15 +46216,18 @@
         <v>2.0</v>
       </c>
       <c r="CE179" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CF179" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B180" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C180" t="n">
         <v>265.0</v>
@@ -45936,14 +46471,17 @@
       </c>
       <c r="CE180" t="n">
         <v>13.0</v>
+      </c>
+      <c r="CF180" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B181" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C181" t="n">
         <v>2099.0</v>
@@ -46187,14 +46725,17 @@
       </c>
       <c r="CE181" t="n">
         <v>1101.0</v>
+      </c>
+      <c r="CF181" t="n">
+        <v>1093.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B182" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C182" t="n">
         <v>247.0</v>
@@ -46438,14 +46979,17 @@
       </c>
       <c r="CE182" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CF182" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B183" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C183" t="n">
         <v>48.0</v>
@@ -46689,14 +47233,17 @@
       </c>
       <c r="CE183" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CF183" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B184" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C184" t="n">
         <v>1991.0</v>
@@ -46940,14 +47487,17 @@
       </c>
       <c r="CE184" t="n">
         <v>753.0</v>
+      </c>
+      <c r="CF184" t="n">
+        <v>243.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B185" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C185" t="n">
         <v>121.0</v>
@@ -47191,14 +47741,17 @@
       </c>
       <c r="CE185" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CF185" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B186" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C186" t="n">
         <v>92.0</v>
@@ -47442,14 +47995,17 @@
       </c>
       <c r="CE186" t="n">
         <v>114.0</v>
+      </c>
+      <c r="CF186" t="n">
+        <v>112.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B187" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C187" t="n">
         <v>611.0</v>
@@ -47693,14 +48249,17 @@
       </c>
       <c r="CE187" t="n">
         <v>198.0</v>
+      </c>
+      <c r="CF187" t="n">
+        <v>165.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B188" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C188" t="n">
         <v>160.0</v>
@@ -47943,15 +48502,18 @@
         <v>12.0</v>
       </c>
       <c r="CE188" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CF188" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B189" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C189" t="n">
         <v>160.0</v>
@@ -48195,14 +48757,17 @@
       </c>
       <c r="CE189" t="n">
         <v>92.0</v>
+      </c>
+      <c r="CF189" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B190" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C190" t="n">
         <v>303.0</v>
@@ -48445,15 +49010,18 @@
         <v>150.0</v>
       </c>
       <c r="CE190" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="CF190" t="n">
         <v>147.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B191" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C191" t="n">
         <v>3236.0</v>
@@ -48697,14 +49265,17 @@
       </c>
       <c r="CE191" t="n">
         <v>288.0</v>
+      </c>
+      <c r="CF191" t="n">
+        <v>278.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B192" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C192" t="n">
         <v>118.0</v>
@@ -48948,14 +49519,17 @@
       </c>
       <c r="CE192" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CF192" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B193" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C193" t="n">
         <v>220.0</v>
@@ -49198,15 +49772,18 @@
         <v>61.0</v>
       </c>
       <c r="CE193" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="CF193" t="n">
         <v>62.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B194" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C194" t="n">
         <v>3899.0</v>
@@ -49450,14 +50027,17 @@
       </c>
       <c r="CE194" t="n">
         <v>320.0</v>
+      </c>
+      <c r="CF194" t="n">
+        <v>313.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B195" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C195" t="n">
         <v>4.0</v>
@@ -49700,15 +50280,18 @@
         <v>2.0</v>
       </c>
       <c r="CE195" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CF195" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B196" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C196" t="n">
         <v>8.0</v>
@@ -49951,15 +50534,18 @@
         <v>3.0</v>
       </c>
       <c r="CE196" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CF196" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B197" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C197" t="n">
         <v>49.0</v>
@@ -50202,15 +50788,18 @@
         <v>16.0</v>
       </c>
       <c r="CE197" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CF197" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B198" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C198" t="n">
         <v>255.0</v>
@@ -50454,14 +51043,17 @@
       </c>
       <c r="CE198" t="n">
         <v>25.0</v>
+      </c>
+      <c r="CF198" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B199" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C199" t="n">
         <v>44.0</v>
@@ -50704,15 +51296,18 @@
         <v>24.0</v>
       </c>
       <c r="CE199" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CF199" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B200" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C200" t="n">
         <v>7.0</v>
@@ -50955,15 +51550,18 @@
         <v>1.0</v>
       </c>
       <c r="CE200" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF200" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B201" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C201" t="n">
         <v>121.0</v>
@@ -51207,14 +51805,17 @@
       </c>
       <c r="CE201" t="n">
         <v>193.0</v>
+      </c>
+      <c r="CF201" t="n">
+        <v>197.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B202" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C202" t="n">
         <v>387.0</v>
@@ -51458,14 +52059,17 @@
       </c>
       <c r="CE202" t="n">
         <v>154.0</v>
+      </c>
+      <c r="CF202" t="n">
+        <v>129.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B203" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C203" t="n">
         <v>78.0</v>
@@ -51709,14 +52313,17 @@
       </c>
       <c r="CE203" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CF203" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B204" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C204" t="n">
         <v>292.0</v>
@@ -51960,14 +52567,17 @@
       </c>
       <c r="CE204" t="n">
         <v>372.0</v>
+      </c>
+      <c r="CF204" t="n">
+        <v>370.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B205" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C205" t="n">
         <v>38.0</v>
@@ -52210,15 +52820,18 @@
         <v>0.0</v>
       </c>
       <c r="CE205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF205" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B206" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C206" t="n">
         <v>49.0</v>
@@ -52461,15 +53074,18 @@
         <v>13.0</v>
       </c>
       <c r="CE206" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="CF206" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B207" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C207" t="n">
         <v>41.0</v>
@@ -52713,14 +53329,17 @@
       </c>
       <c r="CE207" t="n">
         <v>187.0</v>
+      </c>
+      <c r="CF207" t="n">
+        <v>189.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B208" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C208" t="n">
         <v>121.0</v>
@@ -52963,15 +53582,18 @@
         <v>43.0</v>
       </c>
       <c r="CE208" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="CF208" t="n">
         <v>43.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B209" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C209" t="n">
         <v>36.0</v>
@@ -53215,14 +53837,17 @@
       </c>
       <c r="CE209" t="n">
         <v>37.0</v>
+      </c>
+      <c r="CF209" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B210" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C210" t="n">
         <v>18.0</v>
@@ -53466,14 +54091,17 @@
       </c>
       <c r="CE210" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CF210" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B211" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C211" t="n">
         <v>97.0</v>
@@ -53716,15 +54344,18 @@
         <v>0.0</v>
       </c>
       <c r="CE211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B212" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C212" t="n">
         <v>6.0</v>
@@ -53967,15 +54598,18 @@
         <v>1.0</v>
       </c>
       <c r="CE212" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF212" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B213" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C213" t="n">
         <v>71.0</v>
@@ -54218,15 +54852,18 @@
         <v>90.0</v>
       </c>
       <c r="CE213" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="CF213" t="n">
         <v>89.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B214" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C214" t="n">
         <v>9.0</v>
@@ -54470,14 +55107,17 @@
       </c>
       <c r="CE214" t="n">
         <v>28.0</v>
+      </c>
+      <c r="CF214" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B215" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C215" t="n">
         <v>4596.0</v>
@@ -54721,14 +55361,17 @@
       </c>
       <c r="CE215" t="n">
         <v>1600.0</v>
+      </c>
+      <c r="CF215" t="n">
+        <v>1597.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B216" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C216" t="n">
         <v>48.0</v>
@@ -54971,15 +55614,18 @@
         <v>13.0</v>
       </c>
       <c r="CE216" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="CF216" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B217" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C217" t="n">
         <v>654.0</v>
@@ -55223,14 +55869,17 @@
       </c>
       <c r="CE217" t="n">
         <v>318.0</v>
+      </c>
+      <c r="CF217" t="n">
+        <v>302.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B218" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C218" t="n">
         <v>84.0</v>
@@ -55474,14 +56123,17 @@
       </c>
       <c r="CE218" t="n">
         <v>13.0</v>
+      </c>
+      <c r="CF218" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B219" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C219" t="n">
         <v>18.0</v>
@@ -55724,15 +56376,18 @@
         <v>1.0</v>
       </c>
       <c r="CE219" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CF219" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B220" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C220" t="n">
         <v>5.0</v>
@@ -55975,15 +56630,18 @@
         <v>2.0</v>
       </c>
       <c r="CE220" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF220" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B221" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C221" t="n">
         <v>58.0</v>
@@ -56227,14 +56885,17 @@
       </c>
       <c r="CE221" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CF221" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B222" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C222" t="n">
         <v>159.0</v>
@@ -56478,14 +57139,17 @@
       </c>
       <c r="CE222" t="n">
         <v>12.0</v>
+      </c>
+      <c r="CF222" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B223" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C223" t="n">
         <v>31380.0</v>
@@ -56729,14 +57393,17 @@
       </c>
       <c r="CE223" t="n">
         <v>15127.0</v>
+      </c>
+      <c r="CF223" t="n">
+        <v>14178.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B224" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C224" t="n">
         <v>2592.0</v>
@@ -56980,14 +57647,17 @@
       </c>
       <c r="CE224" t="n">
         <v>635.0</v>
+      </c>
+      <c r="CF224" t="n">
+        <v>625.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B225" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C225" t="n">
         <v>11.0</v>
@@ -57230,15 +57900,18 @@
         <v>0.0</v>
       </c>
       <c r="CE225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B226" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C226" t="n">
         <v>312.0</v>
@@ -57482,14 +58155,17 @@
       </c>
       <c r="CE226" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CF226" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B227" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C227" t="n">
         <v>0.0</v>
@@ -57732,15 +58408,18 @@
         <v>0.0</v>
       </c>
       <c r="CE227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF227" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B228" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C228" t="n">
         <v>179.0</v>
@@ -57984,14 +58663,17 @@
       </c>
       <c r="CE228" t="n">
         <v>380.0</v>
+      </c>
+      <c r="CF228" t="n">
+        <v>381.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B229" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C229" t="n">
         <v>1510.0</v>
@@ -58235,14 +58917,17 @@
       </c>
       <c r="CE229" t="n">
         <v>213.0</v>
+      </c>
+      <c r="CF229" t="n">
+        <v>217.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B230" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C230" t="n">
         <v>3091.0</v>
@@ -58486,14 +59171,17 @@
       </c>
       <c r="CE230" t="n">
         <v>1661.0</v>
+      </c>
+      <c r="CF230" t="n">
+        <v>1718.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B231" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C231" t="n">
         <v>17.0</v>
@@ -58737,14 +59425,17 @@
       </c>
       <c r="CE231" t="n">
         <v>64.0</v>
+      </c>
+      <c r="CF231" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B232" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C232" t="n">
         <v>124.0</v>
@@ -58988,14 +59679,17 @@
       </c>
       <c r="CE232" t="n">
         <v>18.0</v>
+      </c>
+      <c r="CF232" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B233" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C233" t="n">
         <v>165.0</v>
@@ -59239,14 +59933,17 @@
       </c>
       <c r="CE233" t="n">
         <v>460.0</v>
+      </c>
+      <c r="CF233" t="n">
+        <v>458.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B234" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C234" t="n">
         <v>25.0</v>
@@ -59490,14 +60187,17 @@
       </c>
       <c r="CE234" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CF234" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B235" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C235" t="n">
         <v>70.0</v>
@@ -59741,14 +60441,17 @@
       </c>
       <c r="CE235" t="n">
         <v>24.0</v>
+      </c>
+      <c r="CF235" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B236" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C236" t="n">
         <v>323.0</v>
@@ -59992,14 +60695,17 @@
       </c>
       <c r="CE236" t="n">
         <v>202.0</v>
+      </c>
+      <c r="CF236" t="n">
+        <v>170.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B237" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C237" t="n">
         <v>1023.0</v>
@@ -60242,15 +60948,18 @@
         <v>409.0</v>
       </c>
       <c r="CE237" t="n">
+        <v>428.0</v>
+      </c>
+      <c r="CF237" t="n">
         <v>428.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B238" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C238" t="n">
         <v>243.0</v>
@@ -60494,14 +61203,17 @@
       </c>
       <c r="CE238" t="n">
         <v>192.0</v>
+      </c>
+      <c r="CF238" t="n">
+        <v>166.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B239" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C239" t="n">
         <v>230.0</v>
@@ -60745,14 +61457,17 @@
       </c>
       <c r="CE239" t="n">
         <v>83.0</v>
+      </c>
+      <c r="CF239" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B240" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C240" t="n">
         <v>135.0</v>
@@ -60996,14 +61711,17 @@
       </c>
       <c r="CE240" t="n">
         <v>74.0</v>
+      </c>
+      <c r="CF240" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B241" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C241" t="n">
         <v>125.0</v>
@@ -61246,15 +61964,18 @@
         <v>39.0</v>
       </c>
       <c r="CE241" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="CF241" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B242" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C242" t="n">
         <v>189.0</v>
@@ -61498,14 +62219,17 @@
       </c>
       <c r="CE242" t="n">
         <v>427.0</v>
+      </c>
+      <c r="CF242" t="n">
+        <v>431.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B243" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C243" t="n">
         <v>3689.0</v>
@@ -61749,14 +62473,17 @@
       </c>
       <c r="CE243" t="n">
         <v>803.0</v>
+      </c>
+      <c r="CF243" t="n">
+        <v>793.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B244" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C244" t="n">
         <v>131.0</v>
@@ -62000,14 +62727,17 @@
       </c>
       <c r="CE244" t="n">
         <v>39.0</v>
+      </c>
+      <c r="CF244" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B245" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C245" t="n">
         <v>79.0</v>
@@ -62251,14 +62981,17 @@
       </c>
       <c r="CE245" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CF245" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B246" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C246" t="n">
         <v>2591.0</v>
@@ -62502,14 +63235,17 @@
       </c>
       <c r="CE246" t="n">
         <v>213.0</v>
+      </c>
+      <c r="CF246" t="n">
+        <v>174.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B247" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C247" t="n">
         <v>41.0</v>
@@ -62752,15 +63488,18 @@
         <v>1.0</v>
       </c>
       <c r="CE247" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF247" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B248" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C248" t="n">
         <v>146.0</v>
@@ -63004,14 +63743,17 @@
       </c>
       <c r="CE248" t="n">
         <v>106.0</v>
+      </c>
+      <c r="CF248" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B249" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C249" t="n">
         <v>1135.0</v>
@@ -63254,15 +63996,18 @@
         <v>0.0</v>
       </c>
       <c r="CE249" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF249" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B250" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C250" t="n">
         <v>176.0</v>
@@ -63505,15 +64250,18 @@
         <v>62.0</v>
       </c>
       <c r="CE250" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="CF250" t="n">
         <v>81.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B251" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C251" t="n">
         <v>126.0</v>
@@ -63757,14 +64505,17 @@
       </c>
       <c r="CE251" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CF251" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B252" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C252" t="n">
         <v>350.0</v>
@@ -64008,14 +64759,17 @@
       </c>
       <c r="CE252" t="n">
         <v>94.0</v>
+      </c>
+      <c r="CF252" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B253" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C253" t="n">
         <v>357.0</v>
@@ -64258,15 +65012,18 @@
         <v>305.0</v>
       </c>
       <c r="CE253" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="CF253" t="n">
         <v>321.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B254" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C254" t="n">
         <v>112.0</v>
@@ -64509,15 +65266,18 @@
         <v>9.0</v>
       </c>
       <c r="CE254" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CF254" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B255" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C255" t="n">
         <v>68.0</v>
@@ -64761,14 +65521,17 @@
       </c>
       <c r="CE255" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CF255" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B256" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C256" t="n">
         <v>180.0</v>
@@ -65012,14 +65775,17 @@
       </c>
       <c r="CE256" t="n">
         <v>58.0</v>
+      </c>
+      <c r="CF256" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B257" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C257" t="n">
         <v>35.0</v>
@@ -65263,14 +66029,17 @@
       </c>
       <c r="CE257" t="n">
         <v>27.0</v>
+      </c>
+      <c r="CF257" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B258" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C258"/>
       <c r="D258"/>
@@ -65353,13 +66122,14 @@
       <c r="CC258"/>
       <c r="CD258"/>
       <c r="CE258"/>
+      <c r="CF258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B259" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
@@ -65442,13 +66212,14 @@
       <c r="CC259"/>
       <c r="CD259"/>
       <c r="CE259"/>
+      <c r="CF259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B260" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
@@ -65531,13 +66302,14 @@
       <c r="CC260"/>
       <c r="CD260"/>
       <c r="CE260"/>
+      <c r="CF260"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B261" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
@@ -65620,13 +66392,14 @@
       <c r="CC261"/>
       <c r="CD261"/>
       <c r="CE261"/>
+      <c r="CF261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B262" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -65709,13 +66482,14 @@
       <c r="CC262"/>
       <c r="CD262"/>
       <c r="CE262"/>
+      <c r="CF262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B263" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
@@ -65798,13 +66572,14 @@
       <c r="CC263"/>
       <c r="CD263"/>
       <c r="CE263"/>
+      <c r="CF263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B264" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
@@ -65887,13 +66662,14 @@
       <c r="CC264"/>
       <c r="CD264"/>
       <c r="CE264"/>
+      <c r="CF264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B265" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
@@ -65976,13 +66752,14 @@
       <c r="CC265"/>
       <c r="CD265"/>
       <c r="CE265"/>
+      <c r="CF265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B266" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
@@ -66065,13 +66842,14 @@
       <c r="CC266"/>
       <c r="CD266"/>
       <c r="CE266"/>
+      <c r="CF266"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B267" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
@@ -66154,13 +66932,14 @@
       <c r="CC267"/>
       <c r="CD267"/>
       <c r="CE267"/>
+      <c r="CF267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B268" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
@@ -66243,13 +67022,14 @@
       <c r="CC268"/>
       <c r="CD268"/>
       <c r="CE268"/>
+      <c r="CF268"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B269" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C269"/>
       <c r="D269"/>
@@ -66332,13 +67112,14 @@
       <c r="CC269"/>
       <c r="CD269"/>
       <c r="CE269"/>
+      <c r="CF269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B270" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C270"/>
       <c r="D270"/>
@@ -66421,13 +67202,14 @@
       <c r="CC270"/>
       <c r="CD270"/>
       <c r="CE270"/>
+      <c r="CF270"/>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B271" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
@@ -66510,13 +67292,14 @@
       <c r="CC271"/>
       <c r="CD271"/>
       <c r="CE271"/>
+      <c r="CF271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B272" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
@@ -66599,13 +67382,14 @@
       <c r="CC272"/>
       <c r="CD272"/>
       <c r="CE272"/>
+      <c r="CF272"/>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B273" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C273"/>
       <c r="D273"/>
@@ -66688,13 +67472,14 @@
       <c r="CC273"/>
       <c r="CD273"/>
       <c r="CE273"/>
+      <c r="CF273"/>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B274" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
@@ -66777,13 +67562,14 @@
       <c r="CC274"/>
       <c r="CD274"/>
       <c r="CE274"/>
+      <c r="CF274"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B275" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C275"/>
       <c r="D275"/>
@@ -66866,13 +67652,14 @@
       <c r="CC275"/>
       <c r="CD275"/>
       <c r="CE275"/>
+      <c r="CF275"/>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B276" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
@@ -66955,13 +67742,14 @@
       <c r="CC276"/>
       <c r="CD276"/>
       <c r="CE276"/>
+      <c r="CF276"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B277" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C277"/>
       <c r="D277"/>
@@ -67044,13 +67832,14 @@
       <c r="CC277"/>
       <c r="CD277"/>
       <c r="CE277"/>
+      <c r="CF277"/>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B278" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C278"/>
       <c r="D278"/>
@@ -67133,13 +67922,14 @@
       <c r="CC278"/>
       <c r="CD278"/>
       <c r="CE278"/>
+      <c r="CF278"/>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B279" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
@@ -67222,6 +68012,7 @@
       <c r="CC279"/>
       <c r="CD279"/>
       <c r="CE279"/>
+      <c r="CF279"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
